--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2829.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2829.xlsx
@@ -354,7 +354,7 @@
         <v>2.440805115263021</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362543821366565</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2829.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2829.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173731779415401</v>
+        <v>1.104248642921448</v>
       </c>
       <c r="B1">
-        <v>2.440805115263021</v>
+        <v>2.453152656555176</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.276597023010254</v>
       </c>
       <c r="D1">
-        <v>2.362543821366565</v>
+        <v>2.217790126800537</v>
       </c>
       <c r="E1">
-        <v>1.236444398892292</v>
+        <v>1.277986168861389</v>
       </c>
     </row>
   </sheetData>
